--- a/nGen_New_MecRT/nGen_New_MecRT/CheckerData.xlsx
+++ b/nGen_New_MecRT/nGen_New_MecRT/CheckerData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>GRID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>데이터 개수가 고정인 데이터만 데이터 고려 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPC1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,11 +170,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +481,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,6 +746,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
@@ -753,67 +771,67 @@
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" t="s">
         <v>10</v>
       </c>

--- a/nGen_New_MecRT/nGen_New_MecRT/CheckerData.xlsx
+++ b/nGen_New_MecRT/nGen_New_MecRT/CheckerData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>GRID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 입력 시 쭉 이어서 입력해도 되지만, Mec파일이나 매뉴얼보면서 입력하기에는 8자리로 끊어서 입력하는게 편할 것. 단, 끝에 END는 입력해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mec 파일에서 구분하는 키워드, 만약 비어있을 경우 바로 윗 데이터에 추가로 입력함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +83,34 @@
   </si>
   <si>
     <t>SPC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 입력 시 쭉 이어서 입력해도 되지만, Mec파일이나 매뉴얼보면서 입력. 8자리로 끊어서 입력해야만함. 단, 끝에 END는 입력해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSCONP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSLSEG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLOAD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +161,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,12 +187,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,12 +208,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,11 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU17"/>
+  <dimension ref="A1:AU19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -748,7 +787,7 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -760,89 +799,182 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" t="s">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A13:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nGen_New_MecRT/nGen_New_MecRT/CheckerData.xlsx
+++ b/nGen_New_MecRT/nGen_New_MecRT/CheckerData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>GRID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,36 +82,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>데이터 입력 시 쭉 이어서 입력해도 되지만, Mec파일이나 매뉴얼보면서 입력. 8자리로 끊어서 입력해야만함. 단, 끝에 END는 입력해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSCONP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSLSEG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLOAD1</t>
+  </si>
+  <si>
+    <t>PLOAD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRAV</t>
+  </si>
+  <si>
+    <t>FORCE</t>
+  </si>
+  <si>
+    <t>MOMENT</t>
+  </si>
+  <si>
+    <t>PLOADE1</t>
+  </si>
+  <si>
+    <t>PLOAD4</t>
+  </si>
+  <si>
+    <t>SPCD</t>
+  </si>
+  <si>
     <t>SPC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 입력 시 쭉 이어서 입력해도 되지만, Mec파일이나 매뉴얼보면서 입력. 8자리로 끊어서 입력해야만함. 단, 끝에 END는 입력해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSCONP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSLSEG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLOAD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPD</t>
+  </si>
+  <si>
+    <t>TEMPEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECTRM</t>
   </si>
 </sst>
 </file>
@@ -195,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +236,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -516,11 +549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU19"/>
+  <dimension ref="A1:AU36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -787,36 +820,54 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
+    </row>
+    <row r="7" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -827,34 +878,31 @@
       <c r="I7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>20</v>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="B8" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
@@ -864,117 +912,205 @@
       </c>
     </row>
     <row r="9" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A13:C15"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A30:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
